--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mstn-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mstn-Acvr2b.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N2">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q2">
-        <v>0.4583775372602222</v>
+        <v>0.6119292819429999</v>
       </c>
       <c r="R2">
-        <v>4.125397835342</v>
+        <v>5.507363537487</v>
       </c>
       <c r="S2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="T2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q3">
         <v>0.1253870358937778</v>
@@ -635,10 +635,10 @@
         <v>1.128483323044</v>
       </c>
       <c r="S3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="T3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N4">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q4">
-        <v>0.3897599163989999</v>
+        <v>0.5979969401832221</v>
       </c>
       <c r="R4">
-        <v>3.507839247590999</v>
+        <v>5.381972461648999</v>
       </c>
       <c r="S4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="T4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N5">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q5">
-        <v>0.2126730013621111</v>
+        <v>0.2578849677281111</v>
       </c>
       <c r="R5">
-        <v>1.914057012259</v>
+        <v>2.320964709552999</v>
       </c>
       <c r="S5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="T5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
     </row>
   </sheetData>
